--- a/gaza_NCDs/inputs/gaza_NCD_treated_untreated_survival.xlsx
+++ b/gaza_NCDs/inputs/gaza_NCD_treated_untreated_survival.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lshtm-my.sharepoint.com/personal/lsh2004086_lshtm_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhixichen/Downloads/gaza_projections-main 4/gaza_NCDs/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E2E2E7C-EB44-45CD-88B6-E43E4804410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F984B971-032F-0B47-9FA6-3606E330547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8421CB4E-EB40-4493-8798-E9EC6098526E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{8421CB4E-EB40-4493-8798-E9EC6098526E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>disease</t>
   </si>
@@ -77,36 +77,15 @@
     <t>untreated</t>
   </si>
   <si>
-    <t>80-85</t>
-  </si>
-  <si>
-    <t>70-75</t>
-  </si>
-  <si>
-    <t>65-60</t>
-  </si>
-  <si>
     <t>hemorrhagic stroke</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>50-60</t>
-  </si>
-  <si>
-    <t>35-49</t>
-  </si>
-  <si>
     <t>ischemic stroke</t>
   </si>
   <si>
     <t>ischemic heart disease</t>
   </si>
   <si>
-    <t>94.3-97.2</t>
-  </si>
-  <si>
     <t>breast cancer</t>
   </si>
   <si>
@@ -114,13 +93,25 @@
   </si>
   <si>
     <t>colorectal cancer</t>
+  </si>
+  <si>
+    <t>treated lb</t>
+  </si>
+  <si>
+    <t>treated ub</t>
+  </si>
+  <si>
+    <t>surival_time_0-3 yo</t>
+  </si>
+  <si>
+    <t>surival_time_0-4 yo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +215,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -577,22 +638,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D68331-A1E6-4864-8A3B-A5E1549B0BE6}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="7"/>
-    <col min="4" max="4" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="7"/>
+    <col min="4" max="4" width="20.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,13 +680,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -633,670 +701,512 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2" s="6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6">
-        <v>87</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="G2" s="6">
+        <v>83</v>
+      </c>
       <c r="H2" s="6">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E3" s="6">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F3" s="6">
-        <v>88</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G3" s="6">
+        <v>60</v>
+      </c>
       <c r="H3" s="6">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>68</v>
+      </c>
       <c r="D4" s="6">
-        <v>99</v>
-      </c>
-      <c r="E4" s="6">
-        <v>97</v>
-      </c>
-      <c r="F4" s="6">
-        <v>93</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
-        <v>85</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="6">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="6">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>60</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="6">
+        <v>38</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6">
-        <v>32.1</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>38</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="6">
+        <v>24</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
+      <c r="C7" s="6">
+        <v>93</v>
+      </c>
+      <c r="D7" s="6">
+        <v>88</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>76</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="6">
+        <v>49</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6">
+        <v>82</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>60</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6">
-        <v>69.3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="6">
+        <v>94.3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6">
-        <v>58.9</v>
+        <v>86</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>37.799999999999997</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10" s="6">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
+        <v>97.2</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>91.2</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>86</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6">
-        <v>51</v>
-      </c>
-      <c r="D11" s="6">
-        <v>42.7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>24</v>
-      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="6">
+        <v>42</v>
+      </c>
+      <c r="L11" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <v>93.1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>87.4</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>99</v>
+      </c>
+      <c r="F12" s="6">
+        <v>98.3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>96</v>
+      </c>
+      <c r="H12" s="6">
+        <v>91</v>
+      </c>
+      <c r="I12" s="6">
+        <v>86.7</v>
+      </c>
+      <c r="J12" s="6">
+        <v>84</v>
+      </c>
+      <c r="K12" s="6">
+        <v>80</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>95</v>
+      </c>
+      <c r="F13" s="6">
+        <v>93.3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="H13" s="6">
+        <v>81.7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>75.3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>70</v>
+      </c>
+      <c r="K13" s="6">
+        <v>67</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6">
-        <v>76.400000000000006</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6">
-        <v>88.9</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
-        <v>49.4</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
-        <v>89.3</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>82</v>
+      </c>
+      <c r="F14" s="6">
+        <v>71</v>
+      </c>
+      <c r="G14" s="6">
+        <v>60</v>
+      </c>
+      <c r="H14" s="6">
+        <v>46.7</v>
+      </c>
+      <c r="I14" s="6">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K14" s="6">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
-        <v>88.1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>82.1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>69.3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>54.7</v>
       </c>
       <c r="G15" s="6">
-        <v>60</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H15" s="6">
+        <v>24</v>
+      </c>
       <c r="I15" s="6">
-        <v>31</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>21.3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="K15" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6">
-        <v>93.8</v>
-      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="6">
-        <v>91.2</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
+        <v>93.6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>88</v>
       </c>
       <c r="G16" s="6">
-        <v>86</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>79</v>
+      </c>
+      <c r="H16" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>65</v>
+      </c>
+      <c r="J16" s="6">
+        <v>60.7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>56.7</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6">
-        <v>88</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6">
-        <v>87.5</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
-        <v>74</v>
-      </c>
-      <c r="D19" s="6">
-        <v>60</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6">
-        <v>53</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
-        <v>42</v>
-      </c>
-      <c r="J19" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>99</v>
-      </c>
-      <c r="F20" s="6">
-        <v>99</v>
-      </c>
-      <c r="G20" s="6">
-        <v>97</v>
-      </c>
-      <c r="H20" s="6">
-        <v>92</v>
-      </c>
-      <c r="I20" s="6">
-        <v>84</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>94</v>
-      </c>
-      <c r="F21" s="6">
-        <v>92</v>
-      </c>
-      <c r="G21" s="6">
-        <v>84</v>
-      </c>
-      <c r="H21" s="6">
-        <v>78</v>
-      </c>
-      <c r="I21" s="6">
-        <v>58</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>95</v>
-      </c>
-      <c r="F22" s="6">
-        <v>95</v>
-      </c>
-      <c r="G22" s="6">
-        <v>91</v>
-      </c>
-      <c r="H22" s="6">
-        <v>68</v>
-      </c>
-      <c r="I22" s="6">
-        <v>54</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
-        <v>69</v>
-      </c>
-      <c r="F23" s="6">
-        <v>54</v>
-      </c>
-      <c r="G23" s="6">
-        <v>35</v>
-      </c>
-      <c r="H23" s="6">
-        <v>24</v>
-      </c>
-      <c r="I23" s="6">
-        <v>19</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>92</v>
-      </c>
-      <c r="F24" s="6">
-        <v>86</v>
-      </c>
-      <c r="G24" s="6">
-        <v>77</v>
-      </c>
-      <c r="H24" s="6">
-        <v>68</v>
-      </c>
-      <c r="I24" s="6">
-        <v>56</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>86</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>87.3</v>
+      </c>
+      <c r="F17" s="6">
         <v>83</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G17" s="6">
         <v>75</v>
       </c>
-      <c r="H25" s="6">
-        <v>63</v>
-      </c>
-      <c r="I25" s="6">
-        <v>48</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="H17" s="6">
+        <v>66.7</v>
+      </c>
+      <c r="I17" s="6">
+        <v>59</v>
+      </c>
+      <c r="J17" s="6">
+        <v>54.3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="L17" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A22:B25 A2:J18 A19:B19 C19:J25">
-    <cfRule type="expression" dxfId="5" priority="9">
+  <conditionalFormatting sqref="A12:B12">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="14" priority="22">
+      <formula>$H13="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B13">
+    <cfRule type="expression" dxfId="13" priority="23">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="24">
+      <formula>#REF!="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11 A2:L3 A4:F6 H4:L6 A7:L10 C11:L13 A14:D17 F14:L17">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$H2="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:B20">
-    <cfRule type="expression" dxfId="3" priority="15">
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
-      <formula>$H21="N"</formula>
+    <cfRule type="expression" dxfId="8" priority="28">
+      <formula>$H5="N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:B21">
-    <cfRule type="expression" dxfId="1" priority="17">
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>#REF!="Y"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18">
-      <formula>#REF!="N"</formula>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>$H6="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E17">
+    <cfRule type="expression" dxfId="5" priority="31">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="32">
+      <formula>$H14="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$H14="N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$H15="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,6 +1467,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce768b92-758b-4afa-a10e-7844daf88c8a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1565,22 +1483,39 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce768b92-758b-4afa-a10e-7844daf88c8a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBB3CB10-9439-4AF9-ADFD-AD3953B7CA49}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBB3CB10-9439-4AF9-ADFD-AD3953B7CA49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ce768b92-758b-4afa-a10e-7844daf88c8a"/>
+    <ds:schemaRef ds:uri="e72136b3-ffae-4608-8d42-dc44deade214"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B60F3F-1D9F-4A97-9713-CB0C775E1574}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862B148E-3E25-46BD-8582-AB8167D5E0E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce768b92-758b-4afa-a10e-7844daf88c8a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862B148E-3E25-46BD-8582-AB8167D5E0E6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B60F3F-1D9F-4A97-9713-CB0C775E1574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>